--- a/Document/枕返し　インゲーム仕様書.xlsx
+++ b/Document/枕返し　インゲーム仕様書.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49e19631c20fe80c/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fdde98f2b9fac5d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{61D0665C-575F-4C60-B9C7-D2093BA4F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484676D5-64FE-4C2A-800D-FA65E83C563D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{61D0665C-575F-4C60-B9C7-D2093BA4F106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA8FB19B-9ECE-4529-BD14-589C51B2D71B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0897C5A5-81FB-4D6C-8C2A-D6ACED2080CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0897C5A5-81FB-4D6C-8C2A-D6ACED2080CF}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="インゲーム概要" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="4">
@@ -200,59 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木の板：ひっくり返すことで、姿が変わる。（子人⇔大人）</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スガタ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>オトナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間取り図：ひっくり返すことで見回りをする人間の巡回ルートが逆になる。</t>
-    <rPh sb="0" eb="2">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ミマワ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニンゲン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジュンカイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【カメラ仕様】</t>
     <rPh sb="4" eb="6">
       <t>シヨウ</t>
@@ -263,6 +209,252 @@
     <t>プレイヤーキャラを中心とする。</t>
     <rPh sb="9" eb="11">
       <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤子：家に配置されているオブジェクト。エネミーではない。いるだけでそのエネミーAの目覚めやすさが上がる。</t>
+    <rPh sb="0" eb="2">
+      <t>アカゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【エネミー概要】</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーB：各ステージの道を見回っている人。このエネミーが照らしている範囲に入ると見つかり、ゲームオーバー。</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミマワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーA：寝ている人。このエネミーの枕をひっくり返す。起きてるときに特定範囲内にいると見つかり、ゲームオーバー。</t>
+    <rPh sb="6" eb="7">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破魔矢：家に配置されているオブジェクト。大人の姿の時、時間制限が発生し、時間が切れると小人の姿に戻る。子供の姿の時、移動速度が低下する。</t>
+    <rPh sb="0" eb="3">
+      <t>ハマヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ジカンセイゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コビト</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛り塩：家の前に配置されているオブジェクト。これが配置された家には、大人の姿でしか入ることができない。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重い枕：枕よりもひっくり返すのに時間のかかる枕。</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー概要作成、ギミック概要更新</t>
+    <rPh sb="4" eb="8">
+      <t>ガイヨウサクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け軸：家の中に配置されているオブジェクト。ひっくり返すことで、姿が変わる。（子人⇔大人）</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オトナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,15 +647,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>130079</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>204162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>549179</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>115262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -478,8 +670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="9048750"/>
-          <a:ext cx="4381500" cy="2654300"/>
+          <a:off x="793943" y="9228859"/>
+          <a:ext cx="4402281" cy="2682009"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,13 +718,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -596,13 +788,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -666,13 +858,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -736,13 +928,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -806,13 +998,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -968,6 +1160,146 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138160</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>87168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557260</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>229177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E322A-1064-3B1E-2DC9-C183294ADFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802024" y="13268229"/>
+          <a:ext cx="4402281" cy="2682009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426797</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>67926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182032</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>209935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795DE6B2-DDFD-0FD1-C287-31C68C8D0F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737706" y="13248987"/>
+          <a:ext cx="4402281" cy="2682009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1270,21 +1602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B8D4D8-C887-4B3D-BBFF-02CB510CD73D}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="53.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="13.4140625" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="53.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="38.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1630,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2">
         <v>44842</v>
       </c>
@@ -1323,7 +1655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2">
         <v>44846</v>
       </c>
@@ -1335,6 +1667,20 @@
       </c>
       <c r="F6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="2">
+        <v>44855</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1345,15 +1691,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E007D39-D661-4ACE-8C78-5DD3814C75E0}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="38.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1718,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1386,69 +1732,99 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B73" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1456,17 +1832,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE1E55A-0F09-411D-8D12-002FDFB94CEE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>